--- a/assets/disciplinas/LOB1235.xlsx
+++ b/assets/disciplinas/LOB1235.xlsx
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Impactos e Adeqüação Ambiental</t>
+    <t xml:space="preserve"> Avaliação de Impactos Ambientais</t>
   </si>
   <si>
     <t>Name:</t>

--- a/assets/disciplinas/LOB1235.xlsx
+++ b/assets/disciplinas/LOB1235.xlsx
@@ -34,7 +34,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Environmental Impacts and adaptation</t>
+    <t>Environmental Impacts Assessment</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
@@ -46,19 +46,19 @@
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
   <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>90 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,13 +70,13 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar os conhecimentos básicos sobre o uso dos recursos ambientais pelas atividades antrópicas, as interferências no meio, os impactos associados e o encaminhamento para adequação ambiental, alinhado aos princípios da sustentabilidade. Conhecer ferramentas de apoio estratégico na identificação de problemas e estabelecimento de ações de correção.</t>
+    <t>Propiciar aos alunos conhecimento sobre os fundamentos, objetivos e métodos da Avaliação de Impacto Ambiental.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Provide basic knowledge on the use of environmental resources by anthropic activities, environmental interference, associated impacts and referral to environmental compliance, in line with the principles of sustainability. To know support tools in identifying problems and establishing corrective actions.</t>
+    <t>Provide knowledge on the fundamentals, objectives and methods of environmental impact assessment.</t>
   </si>
   <si>
     <t>Docentes responsáveis:</t>
@@ -88,7 +88,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Processo de avaliação de impacto ambiental e seus objetivos; Impactos ambientais sobre águas superficiais, subterrâneas e oceânicas; Poluição hídrica; Impactos ambientais sobre o solo; Poluição atmosférica e saúde humana.</t>
+    <t>Os objetivos da Avaliação de Impacto Ambiental (AIA). O processo da AIA: triagem, definição do escopo, estudos de base, análise de impactos ambientais, mitigação, análise técnica e acompanhamento. Requisitos legais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,13 +100,13 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Disponibilidade hídrica; Impactos promovidos por reservatórios e sua classificação; Fontes de poluição hídrica; Fontes de contaminação de águas subterrâneas; Ocupação desordenada da faixa litorânea; Degradação dos solos; Impactos de poluentes atmosféricos que afetam a saúde humana; Métodos científicos utilizados nos estados de poluição; Impactos das mudanças climáticas; Identificação de impactos; previsão de impactos; avaliação da importância dos impactos; Etapa de planejamento e da elaboração de um estudo de impacto ambiental; Estudo de Impacto Ambiental (EIA); Relatório de Impacto Ambiental (RIMA).</t>
+    <t>Conceitos básicos e definições. Origem e difusão da AIA. AIA e licenciamento: objetivos e fundamentos. Quadro legal e institucional brasileiro para a AIA. O processo de AIA e seus componentes. Etapas do planejamento e execução de um Estudo de Impacto Ambiental. Alternativas tecnológicas e de localização. Estudos de base e diagnóstico ambiental. Técnicas de identificação e previsão de impactos. Métodos e critérios de avaliação da importância dos impactos. Plano de gestão ambiental: medidas mitigadoras, compensatórias, de valorização e monitoramento. Tomada de decisão e acompanhamento. Estudos de caso.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>Water availability; Impacts promoted by reservoirs and their classification; Sources of water pollution; Sources of groundwater contamination; Disordered occupation of the coastal strip; Soil degradation; Impacts of air pollutants that affect human health; Scientific methods used in pollution states; Impacts of climate change; Identification of impacts; Prediction of impacts; Assessment of the importance of impacts; Stage of planning and preparation of an environmental impact study; Environmental Impact Study ; Environmental Impact Report.</t>
+    <t>Basic concepts and definitions. Origin and dissemination of the Environmental Impact Assessment (EIA). EIA and licensing: objectives and fundamentals. Brazilian legal and institutional framework for EIA. The EIA process and its components. Steps in planning and execution of an Environmental Impact Statement. Technological and localization alternatives. Baseline studies. Impact identification and prediction techniques. Methods and criteria for determining impact significance. Environmental management plan: mitigation, compensation, monitoring. Decision making and follow-up. Case studies.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -115,35 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aula expositiva, exercícios dirigidos, viagens para aula prática, trabalho prático e seminários.</t>
+    <t>Aulas teóricas expositivas, atividades individuais e em grupo, relatórios e provas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Média ponderada de exercícios e provas.</t>
+    <t>Média ponderada de atividades e provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Prova única com nota igual ou superior a 5,0.</t>
+    <t>1 (uma) prova escrita</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Bibliografia básica
-CALIJURI, M.C., CUNHA, D.G.F. (Org.), Engenharia ambiental: conceitos, tecnologia e gestão, Ed. Campus, 2013
-SÁNCHEZ, L.E., Avaliação de impacto ambiental: conceitos e métodos, Ed. Oficina de textos, 3° reimpressão, 2011
-MULLER-PLANTENBERG, C., ABSABER, A.N. (Org.), Previsão de impactos: o estudo de impactos ambiental no leste, oeste e sul. Experiência no Brasil, na Rússia e na Alemanha, 2° ed., EDUSP, 2006.
-KRAWULSKI, C.C., FEIJÓ, C.C.C., Introdução à gestão ambiental, Ed. Pearson, 2009.
-Bibliografia complementar:
-BRAGA B. (Org.), Introdução à engenharia ambiental: o desafio do desenvolvimento sustentável, 2° ed., Ed. Pearson Prentice Hall, 2005
-CARSON, R., Primavera silenciosa, Editora Gaia, 2010
-IBAMA. Manual de impacto ambiental: agentes sociais, procedimentos e ferramentas, Brasília, 1995
-ACSELRAD, H. (Org.), Conflitos ambientais no brasil, Fundação Henrich Boll, 2004
-MIHELCIC, J.R., ZIMMERMAN, J.B., Engenharia ambiental: fundamentos, sustentabilidade e projeto, Editora LTC, 2012</t>
+    <t>Bibliografia básicaSÁNCHEZ, L.E., Avaliação de impacto ambiental: conceitos e métodos. Oficina de textos: São Paulo, 2013. 583p.CALIJURI, M.C., CUNHA, D.G.F. (Org.), Engenharia ambiental: conceitos, tecnologia e gestão. Elsevier: Rio de Janeiro, 2019. 685p.Bibliografia complementar:COMPANHIA AMBIENTAL DO ESTADO DE SÃO PAULO - CETESB. MANUAL PARA ELABORAÇÃO DE ESTUDOS PARA O LICENCIAMENTO COM AVALIAÇÃO DE IMPACTO AMBIENTAL. Departamento de Desenvolvimento de Ações Estratégicas para o Licenciamento da Diretoria I- ID - CETESB. Anexo único, 2014. 250p.</t>
   </si>
   <si>
     <t>Requisitos:</t>

--- a/assets/disciplinas/LOB1235.xlsx
+++ b/assets/disciplinas/LOB1235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar aos alunos conhecimento sobre os fundamentos, objetivos e métodos da Avaliação de Impacto Ambiental.</t>
+    <t>5464150 - Mariana Consiglio Kasemodel</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5464150 - Mariana Consiglio Kasemodel</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Os objetivos da Avaliação de Impacto Ambiental (AIA). O processo da AIA: triagem, definição do escopo, estudos de base, análise de impactos ambientais, mitigação, análise técnica e acompanhamento. Requisitos legais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conceitos básicos e definições. Origem e difusão da AIA. AIA e licenciamento: objetivos e fundamentos. Quadro legal e institucional brasileiro para a AIA. O processo de AIA e seus componentes. Etapas do planejamento e execução de um Estudo de Impacto Ambiental. Alternativas tecnológicas e de localização. Estudos de base e diagnóstico ambiental. Técnicas de identificação e previsão de impactos. Métodos e critérios de avaliação da importância dos impactos. Plano de gestão ambiental: medidas mitigadoras, compensatórias, de valorização e monitoramento. Tomada de decisão e acompanhamento. Estudos de caso.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas expositivas, atividades individuais e em grupo, relatórios e provas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de atividades e provas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova escrita</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básicaSÁNCHEZ, L.E., Avaliação de impacto ambiental: conceitos e métodos. Oficina de textos: São Paulo, 2013. 583p.CALIJURI, M.C., CUNHA, D.G.F. (Org.), Engenharia ambiental: conceitos, tecnologia e gestão. Elsevier: Rio de Janeiro, 2019. 685p.Bibliografia complementar:COMPANHIA AMBIENTAL DO ESTADO DE SÃO PAULO - CETESB. MANUAL PARA ELABORAÇÃO DE ESTUDOS PARA O LICENCIAMENTO COM AVALIAÇÃO DE IMPACTO AMBIENTAL. Departamento de Desenvolvimento de Ações Estratégicas para o Licenciamento da Diretoria I- ID - CETESB. Anexo único, 2014. 250p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1235.xlsx
+++ b/assets/disciplinas/LOB1235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar aos alunos conhecimento sobre os fundamentos, objetivos e métodos da Avaliação de Impacto Ambiental.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide knowledge on the fundamentals, objectives and methods of environmental impact assessment.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5464150 - Mariana Consiglio Kasemodel</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide knowledge on the fundamentals, objectives and methods of environmental impact assessment.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Os objetivos da Avaliação de Impacto Ambiental (AIA). O processo da AIA: triagem, definição do escopo, estudos de base, análise de impactos ambientais, mitigação, análise técnica e acompanhamento. Requisitos legais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conceitos básicos e definições. Origem e difusão da AIA. AIA e licenciamento: objetivos e fundamentos. Quadro legal e institucional brasileiro para a AIA. O processo de AIA e seus componentes. Etapas do planejamento e execução de um Estudo de Impacto Ambiental. Alternativas tecnológicas e de localização. Estudos de base e diagnóstico ambiental. Técnicas de identificação e previsão de impactos. Métodos e critérios de avaliação da importância dos impactos. Plano de gestão ambiental: medidas mitigadoras, compensatórias, de valorização e monitoramento. Tomada de decisão e acompanhamento. Estudos de caso.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas expositivas, atividades individuais e em grupo, relatórios e provas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas expositivas, atividades individuais e em grupo, relatórios e provas.</t>
+    <t>Média ponderada de atividades e provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de atividades e provas.</t>
+    <t>1 (uma) prova escrita</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova escrita</t>
+    <t>Bibliografia básicaSÁNCHEZ, L.E., Avaliação de impacto ambiental: conceitos e métodos. Oficina de textos: São Paulo, 2013. 583p.CALIJURI, M.C., CUNHA, D.G.F. (Org.), Engenharia ambiental: conceitos, tecnologia e gestão. Elsevier: Rio de Janeiro, 2019. 685p.Bibliografia complementar:COMPANHIA AMBIENTAL DO ESTADO DE SÃO PAULO - CETESB. MANUAL PARA ELABORAÇÃO DE ESTUDOS PARA O LICENCIAMENTO COM AVALIAÇÃO DE IMPACTO AMBIENTAL. Departamento de Desenvolvimento de Ações Estratégicas para o Licenciamento da Diretoria I- ID - CETESB. Anexo único, 2014. 250p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
